--- a/Story/3 - Psyche Deepdive/5 - Pale Descendant/Pale Descendant.xlsx
+++ b/Story/3 - Psyche Deepdive/5 - Pale Descendant/Pale Descendant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theda\Documents\GitHub\morimens-volunteer-coordination\Story\3 - Psyche Deepdive\5 - Pale Descendant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CB0459-DCD6-4947-B6D3-64A6BC81C6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B85694-CDD6-4339-913C-C041E335BEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{1D301D67-0530-4FB1-881A-69B994A3700D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1D301D67-0530-4FB1-881A-69B994A3700D}"/>
   </bookViews>
   <sheets>
     <sheet name="Agrippa Deepdive" sheetId="1" r:id="rId1"/>
@@ -15792,9 +15792,6 @@
     <t>蒼白の後裔</t>
   </si>
   <si>
-    <t>백색 후예</t>
-  </si>
-  <si>
     <t>Descendant pâle</t>
   </si>
   <si>
@@ -15837,9 +15834,6 @@
     <t>伝説によると、レンディニエンの地下には唯一の扉があるという。\n それは蒼白の主がいる場所へと通じている……</t>
   </si>
   <si>
-    <t>전설에 따르면 렌티니언의 지하에는 유일한 문이 있다고 합니다. \n 그 문은 백색의 주인의 곳으로 통한다고 합니다.</t>
-  </si>
-  <si>
     <t>On dit qu'il y a une porte unique sous Lentiniens.\n Elle mène au Seigneur Pâle</t>
   </si>
   <si>
@@ -16240,13 +16234,19 @@
   </si>
   <si>
     <t>Stage_20430_Name</t>
+  </si>
+  <si>
+    <t>창백한 후예</t>
+  </si>
+  <si>
+    <t>론디니움의 지하에는 유일무이한 문이 있다고 전해진다.\n 그 문은 창백한 주인의 영역으로 이어진다...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16268,6 +16268,12 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -16293,10 +16299,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -16310,9 +16317,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{47829444-F455-4D57-9E31-B8A80E39B254}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -16527,9 +16538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27115FB2-69EB-4159-AA06-D392EDD5F63F}">
   <dimension ref="A1:S427"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -16626,34 +16635,34 @@
       <c r="L2" t="s">
         <v>5248</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
+        <v>5397</v>
+      </c>
+      <c r="N2" t="s">
         <v>5249</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>5250</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>5251</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>5252</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>5253</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>5254</v>
-      </c>
-      <c r="S2" t="s">
-        <v>5255</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5255</v>
+      </c>
+      <c r="B3" t="s">
         <v>5256</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5257</v>
       </c>
       <c r="C3" t="s">
         <v>5241</v>
@@ -16665,51 +16674,51 @@
         <v>5242</v>
       </c>
       <c r="F3" t="s">
+        <v>5257</v>
+      </c>
+      <c r="H3" t="s">
         <v>5258</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>5259</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>5260</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>5261</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>5262</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="5" t="s">
+        <v>5398</v>
+      </c>
+      <c r="N3" t="s">
         <v>5263</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>5264</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>5265</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>5266</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>5267</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>5268</v>
-      </c>
-      <c r="R3" t="s">
-        <v>5269</v>
-      </c>
-      <c r="S3" t="s">
-        <v>5270</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5271</v>
+        <v>5269</v>
       </c>
       <c r="B4" t="s">
-        <v>5272</v>
+        <v>5270</v>
       </c>
       <c r="C4" t="s">
         <v>5241</v>
@@ -16721,51 +16730,51 @@
         <v>5242</v>
       </c>
       <c r="F4" t="s">
+        <v>5271</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5272</v>
+      </c>
+      <c r="I4" t="s">
         <v>5273</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>5274</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>5275</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>5276</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" s="5" t="s">
         <v>5277</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>5278</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>5279</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>5280</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>5281</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>5282</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>5283</v>
-      </c>
-      <c r="R4" t="s">
-        <v>5284</v>
-      </c>
-      <c r="S4" t="s">
-        <v>5285</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5286</v>
+        <v>5284</v>
       </c>
       <c r="B5" t="s">
-        <v>5287</v>
+        <v>5285</v>
       </c>
       <c r="C5" t="s">
         <v>5241</v>
@@ -16794,34 +16803,34 @@
       <c r="L5" t="s">
         <v>5248</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="5" t="s">
+        <v>5397</v>
+      </c>
+      <c r="N5" t="s">
         <v>5249</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>5250</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>5251</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>5252</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>5253</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>5254</v>
-      </c>
-      <c r="S5" t="s">
-        <v>5255</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5288</v>
+        <v>5286</v>
       </c>
       <c r="B6" t="s">
-        <v>5289</v>
+        <v>5287</v>
       </c>
       <c r="C6" t="s">
         <v>5241</v>
@@ -16833,51 +16842,51 @@
         <v>5242</v>
       </c>
       <c r="F6" t="s">
+        <v>5257</v>
+      </c>
+      <c r="H6" t="s">
         <v>5258</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>5259</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>5260</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>5261</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>5262</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" s="5" t="s">
+        <v>5398</v>
+      </c>
+      <c r="N6" t="s">
         <v>5263</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>5264</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>5265</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>5266</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>5267</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>5268</v>
-      </c>
-      <c r="R6" t="s">
-        <v>5269</v>
-      </c>
-      <c r="S6" t="s">
-        <v>5270</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5290</v>
+        <v>5288</v>
       </c>
       <c r="B7" t="s">
-        <v>5291</v>
+        <v>5289</v>
       </c>
       <c r="C7" t="s">
         <v>5241</v>
@@ -16889,51 +16898,51 @@
         <v>5242</v>
       </c>
       <c r="F7" t="s">
+        <v>5271</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5272</v>
+      </c>
+      <c r="I7" t="s">
         <v>5273</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>5274</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>5275</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>5276</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" s="5" t="s">
         <v>5277</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>5278</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>5279</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>5280</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>5281</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>5282</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>5283</v>
-      </c>
-      <c r="R7" t="s">
-        <v>5284</v>
-      </c>
-      <c r="S7" t="s">
-        <v>5285</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5292</v>
+        <v>5290</v>
       </c>
       <c r="B8" t="s">
-        <v>5293</v>
+        <v>5291</v>
       </c>
       <c r="C8" t="s">
         <v>5241</v>
@@ -16962,34 +16971,34 @@
       <c r="L8" t="s">
         <v>5248</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="5" t="s">
+        <v>5397</v>
+      </c>
+      <c r="N8" t="s">
         <v>5249</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>5250</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>5251</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>5252</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>5253</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>5254</v>
-      </c>
-      <c r="S8" t="s">
-        <v>5255</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5294</v>
+        <v>5292</v>
       </c>
       <c r="B9" t="s">
-        <v>5295</v>
+        <v>5293</v>
       </c>
       <c r="C9" t="s">
         <v>5241</v>
@@ -17001,51 +17010,51 @@
         <v>5242</v>
       </c>
       <c r="F9" t="s">
+        <v>5257</v>
+      </c>
+      <c r="H9" t="s">
         <v>5258</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>5259</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>5260</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>5261</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>5262</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" s="5" t="s">
+        <v>5398</v>
+      </c>
+      <c r="N9" t="s">
         <v>5263</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>5264</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>5265</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>5266</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>5267</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>5268</v>
-      </c>
-      <c r="R9" t="s">
-        <v>5269</v>
-      </c>
-      <c r="S9" t="s">
-        <v>5270</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5296</v>
+        <v>5294</v>
       </c>
       <c r="B10" t="s">
-        <v>5297</v>
+        <v>5295</v>
       </c>
       <c r="C10" t="s">
         <v>5241</v>
@@ -17057,61 +17066,61 @@
         <v>5242</v>
       </c>
       <c r="F10" t="s">
+        <v>5271</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5272</v>
+      </c>
+      <c r="I10" t="s">
         <v>5273</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>5274</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>5275</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>5276</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" s="5" t="s">
         <v>5277</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>5278</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>5279</v>
       </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>5280</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>5281</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>5282</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>5283</v>
-      </c>
-      <c r="R10" t="s">
-        <v>5284</v>
-      </c>
-      <c r="S10" t="s">
-        <v>5285</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>5296</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5297</v>
+      </c>
+      <c r="C12" t="s">
         <v>5298</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5299</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5300</v>
       </c>
       <c r="D12">
         <v>1708</v>
       </c>
       <c r="E12" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="F12" t="s">
         <v>5243</v>
@@ -17120,7 +17129,7 @@
         <v>5217</v>
       </c>
       <c r="I12" t="s">
-        <v>5302</v>
+        <v>5300</v>
       </c>
       <c r="J12" t="s">
         <v>5215</v>
@@ -17131,7 +17140,7 @@
       <c r="L12" t="s">
         <v>5213</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="5" t="s">
         <v>5212</v>
       </c>
       <c r="N12" t="s">
@@ -17155,58 +17164,58 @@
     </row>
     <row r="13" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5303</v>
+        <v>5301</v>
       </c>
       <c r="B13" t="s">
-        <v>5304</v>
+        <v>5302</v>
       </c>
       <c r="C13" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="D13">
         <v>1708</v>
       </c>
       <c r="E13" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="F13" t="s">
-        <v>5258</v>
+        <v>5257</v>
       </c>
       <c r="H13" t="s">
+        <v>5303</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5304</v>
+      </c>
+      <c r="J13" t="s">
         <v>5305</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>5306</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>5307</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>5308</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>5309</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>5310</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>5311</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>5312</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>5313</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>5314</v>
-      </c>
-      <c r="R13" t="s">
-        <v>5315</v>
-      </c>
-      <c r="S13" t="s">
-        <v>5316</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21808,19 +21817,19 @@
     </row>
     <row r="94" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>5317</v>
+        <v>5315</v>
       </c>
       <c r="B94" t="s">
-        <v>5318</v>
+        <v>5316</v>
       </c>
       <c r="C94" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="D94">
         <v>1709</v>
       </c>
       <c r="E94" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="F94" t="s">
         <v>5243</v>
@@ -21829,7 +21838,7 @@
         <v>4149</v>
       </c>
       <c r="I94" t="s">
-        <v>5319</v>
+        <v>5317</v>
       </c>
       <c r="J94" t="s">
         <v>4147</v>
@@ -21864,75 +21873,75 @@
     </row>
     <row r="95" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>5320</v>
+        <v>5318</v>
       </c>
       <c r="B95" t="s">
-        <v>5321</v>
+        <v>5319</v>
       </c>
       <c r="C95" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="D95">
         <v>1709</v>
       </c>
       <c r="E95" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="F95" t="s">
-        <v>5258</v>
+        <v>5257</v>
       </c>
       <c r="H95" t="s">
+        <v>5320</v>
+      </c>
+      <c r="I95" t="s">
+        <v>5321</v>
+      </c>
+      <c r="J95" t="s">
         <v>5322</v>
       </c>
-      <c r="I95" t="s">
+      <c r="K95" t="s">
         <v>5323</v>
       </c>
-      <c r="J95" t="s">
+      <c r="L95" t="s">
         <v>5324</v>
       </c>
-      <c r="K95" t="s">
+      <c r="M95" t="s">
         <v>5325</v>
       </c>
-      <c r="L95" t="s">
+      <c r="N95" t="s">
         <v>5326</v>
       </c>
-      <c r="M95" t="s">
+      <c r="O95" t="s">
         <v>5327</v>
       </c>
-      <c r="N95" t="s">
+      <c r="P95" t="s">
         <v>5328</v>
       </c>
-      <c r="O95" t="s">
+      <c r="Q95" t="s">
         <v>5329</v>
       </c>
-      <c r="P95" t="s">
+      <c r="R95" t="s">
         <v>5330</v>
       </c>
-      <c r="Q95" t="s">
+      <c r="S95" t="s">
         <v>5331</v>
-      </c>
-      <c r="R95" t="s">
-        <v>5332</v>
-      </c>
-      <c r="S95" t="s">
-        <v>5333</v>
       </c>
     </row>
     <row r="96" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>5334</v>
+        <v>5332</v>
       </c>
       <c r="B96" t="s">
-        <v>5335</v>
+        <v>5333</v>
       </c>
       <c r="C96" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="D96">
         <v>1713</v>
       </c>
       <c r="E96" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="F96" t="s">
         <v>5243</v>
@@ -21941,7 +21950,7 @@
         <v>4149</v>
       </c>
       <c r="I96" t="s">
-        <v>5319</v>
+        <v>5317</v>
       </c>
       <c r="J96" t="s">
         <v>4147</v>
@@ -21976,75 +21985,75 @@
     </row>
     <row r="97" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
       <c r="B97" t="s">
-        <v>5337</v>
+        <v>5335</v>
       </c>
       <c r="C97" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="D97">
         <v>1713</v>
       </c>
       <c r="E97" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="F97" t="s">
-        <v>5258</v>
+        <v>5257</v>
       </c>
       <c r="H97" t="s">
+        <v>5320</v>
+      </c>
+      <c r="I97" t="s">
+        <v>5321</v>
+      </c>
+      <c r="J97" t="s">
         <v>5322</v>
       </c>
-      <c r="I97" t="s">
+      <c r="K97" t="s">
         <v>5323</v>
       </c>
-      <c r="J97" t="s">
+      <c r="L97" t="s">
         <v>5324</v>
       </c>
-      <c r="K97" t="s">
+      <c r="M97" t="s">
         <v>5325</v>
       </c>
-      <c r="L97" t="s">
+      <c r="N97" t="s">
         <v>5326</v>
       </c>
-      <c r="M97" t="s">
+      <c r="O97" t="s">
         <v>5327</v>
       </c>
-      <c r="N97" t="s">
+      <c r="P97" t="s">
         <v>5328</v>
       </c>
-      <c r="O97" t="s">
+      <c r="Q97" t="s">
         <v>5329</v>
       </c>
-      <c r="P97" t="s">
+      <c r="R97" t="s">
         <v>5330</v>
       </c>
-      <c r="Q97" t="s">
+      <c r="S97" t="s">
         <v>5331</v>
-      </c>
-      <c r="R97" t="s">
-        <v>5332</v>
-      </c>
-      <c r="S97" t="s">
-        <v>5333</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>5338</v>
+        <v>5336</v>
       </c>
       <c r="B98" t="s">
-        <v>5339</v>
+        <v>5337</v>
       </c>
       <c r="C98" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="D98">
         <v>1715</v>
       </c>
       <c r="E98" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="F98" t="s">
         <v>5243</v>
@@ -22053,7 +22062,7 @@
         <v>4149</v>
       </c>
       <c r="I98" t="s">
-        <v>5319</v>
+        <v>5317</v>
       </c>
       <c r="J98" t="s">
         <v>4147</v>
@@ -22088,58 +22097,58 @@
     </row>
     <row r="99" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>5340</v>
+        <v>5338</v>
       </c>
       <c r="B99" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="C99" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="D99">
         <v>1715</v>
       </c>
       <c r="E99" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="F99" t="s">
-        <v>5258</v>
+        <v>5257</v>
       </c>
       <c r="H99" t="s">
+        <v>5320</v>
+      </c>
+      <c r="I99" t="s">
+        <v>5321</v>
+      </c>
+      <c r="J99" t="s">
         <v>5322</v>
       </c>
-      <c r="I99" t="s">
+      <c r="K99" t="s">
         <v>5323</v>
       </c>
-      <c r="J99" t="s">
+      <c r="L99" t="s">
         <v>5324</v>
       </c>
-      <c r="K99" t="s">
+      <c r="M99" t="s">
         <v>5325</v>
       </c>
-      <c r="L99" t="s">
+      <c r="N99" t="s">
         <v>5326</v>
       </c>
-      <c r="M99" t="s">
+      <c r="O99" t="s">
         <v>5327</v>
       </c>
-      <c r="N99" t="s">
+      <c r="P99" t="s">
         <v>5328</v>
       </c>
-      <c r="O99" t="s">
+      <c r="Q99" t="s">
         <v>5329</v>
       </c>
-      <c r="P99" t="s">
+      <c r="R99" t="s">
         <v>5330</v>
       </c>
-      <c r="Q99" t="s">
+      <c r="S99" t="s">
         <v>5331</v>
-      </c>
-      <c r="R99" t="s">
-        <v>5332</v>
-      </c>
-      <c r="S99" t="s">
-        <v>5333</v>
       </c>
     </row>
     <row r="100" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -25967,19 +25976,19 @@
     </row>
     <row r="167" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>5357</v>
+        <v>5355</v>
       </c>
       <c r="B167" t="s">
-        <v>5356</v>
+        <v>5354</v>
       </c>
       <c r="C167" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="D167">
         <v>1710</v>
       </c>
       <c r="E167" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="F167" t="s">
         <v>5243</v>
@@ -26023,58 +26032,58 @@
     </row>
     <row r="168" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>5355</v>
+        <v>5353</v>
       </c>
       <c r="B168" t="s">
-        <v>5354</v>
+        <v>5352</v>
       </c>
       <c r="C168" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="D168">
         <v>1710</v>
       </c>
       <c r="E168" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="F168" t="s">
-        <v>5258</v>
+        <v>5257</v>
       </c>
       <c r="H168" t="s">
-        <v>5353</v>
+        <v>5351</v>
       </c>
       <c r="I168" t="s">
-        <v>5352</v>
+        <v>5350</v>
       </c>
       <c r="J168" t="s">
-        <v>5351</v>
+        <v>5349</v>
       </c>
       <c r="K168" t="s">
-        <v>5350</v>
+        <v>5348</v>
       </c>
       <c r="L168" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="M168" t="s">
-        <v>5348</v>
+        <v>5346</v>
       </c>
       <c r="N168" t="s">
-        <v>5347</v>
+        <v>5345</v>
       </c>
       <c r="O168" t="s">
-        <v>5346</v>
+        <v>5344</v>
       </c>
       <c r="P168" t="s">
-        <v>5345</v>
+        <v>5343</v>
       </c>
       <c r="Q168" t="s">
-        <v>5344</v>
+        <v>5342</v>
       </c>
       <c r="R168" t="s">
-        <v>5343</v>
+        <v>5341</v>
       </c>
       <c r="S168" t="s">
-        <v>5342</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="169" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29338,19 +29347,19 @@
     </row>
     <row r="226" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>5373</v>
+        <v>5371</v>
       </c>
       <c r="B226" t="s">
-        <v>5372</v>
+        <v>5370</v>
       </c>
       <c r="C226" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="D226">
         <v>1711</v>
       </c>
       <c r="E226" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="F226" t="s">
         <v>5243</v>
@@ -29394,58 +29403,58 @@
     </row>
     <row r="227" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>5371</v>
+        <v>5369</v>
       </c>
       <c r="B227" t="s">
-        <v>5370</v>
+        <v>5368</v>
       </c>
       <c r="C227" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="D227">
         <v>1711</v>
       </c>
       <c r="E227" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="F227" t="s">
-        <v>5258</v>
+        <v>5257</v>
       </c>
       <c r="H227" t="s">
-        <v>5369</v>
+        <v>5367</v>
       </c>
       <c r="I227" t="s">
-        <v>5368</v>
+        <v>5366</v>
       </c>
       <c r="J227" t="s">
-        <v>5367</v>
+        <v>5365</v>
       </c>
       <c r="K227" t="s">
-        <v>5366</v>
+        <v>5364</v>
       </c>
       <c r="L227" t="s">
-        <v>5365</v>
+        <v>5363</v>
       </c>
       <c r="M227" t="s">
-        <v>5364</v>
+        <v>5362</v>
       </c>
       <c r="N227" t="s">
-        <v>5363</v>
+        <v>5361</v>
       </c>
       <c r="O227" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="P227" t="s">
-        <v>5361</v>
+        <v>5359</v>
       </c>
       <c r="Q227" t="s">
-        <v>5360</v>
+        <v>5358</v>
       </c>
       <c r="R227" t="s">
-        <v>5359</v>
+        <v>5357</v>
       </c>
       <c r="S227" t="s">
-        <v>5358</v>
+        <v>5356</v>
       </c>
     </row>
     <row r="228" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -34556,19 +34565,19 @@
     </row>
     <row r="316" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>5398</v>
+        <v>5396</v>
       </c>
       <c r="B316" t="s">
-        <v>5397</v>
+        <v>5395</v>
       </c>
       <c r="C316" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="D316">
         <v>1712</v>
       </c>
       <c r="E316" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="F316" t="s">
         <v>5243</v>
@@ -34577,7 +34586,7 @@
         <v>1415</v>
       </c>
       <c r="I316" t="s">
-        <v>5388</v>
+        <v>5386</v>
       </c>
       <c r="J316" t="s">
         <v>1413</v>
@@ -34612,75 +34621,75 @@
     </row>
     <row r="317" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>5396</v>
+        <v>5394</v>
       </c>
       <c r="B317" t="s">
-        <v>5395</v>
+        <v>5393</v>
       </c>
       <c r="C317" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="D317">
         <v>1712</v>
       </c>
       <c r="E317" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="F317" t="s">
-        <v>5258</v>
+        <v>5257</v>
       </c>
       <c r="H317" t="s">
-        <v>5385</v>
+        <v>5383</v>
       </c>
       <c r="I317" t="s">
-        <v>5384</v>
+        <v>5382</v>
       </c>
       <c r="J317" t="s">
-        <v>5383</v>
+        <v>5381</v>
       </c>
       <c r="K317" t="s">
-        <v>5382</v>
+        <v>5380</v>
       </c>
       <c r="L317" t="s">
-        <v>5381</v>
+        <v>5379</v>
       </c>
       <c r="M317" t="s">
-        <v>5380</v>
+        <v>5378</v>
       </c>
       <c r="N317" t="s">
-        <v>5379</v>
+        <v>5377</v>
       </c>
       <c r="O317" t="s">
-        <v>5378</v>
+        <v>5376</v>
       </c>
       <c r="P317" t="s">
-        <v>5377</v>
+        <v>5375</v>
       </c>
       <c r="Q317" t="s">
-        <v>5376</v>
+        <v>5374</v>
       </c>
       <c r="R317" t="s">
-        <v>5375</v>
+        <v>5373</v>
       </c>
       <c r="S317" t="s">
-        <v>5374</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="318" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>5394</v>
+        <v>5392</v>
       </c>
       <c r="B318" t="s">
-        <v>5393</v>
+        <v>5391</v>
       </c>
       <c r="C318" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="D318">
         <v>1714</v>
       </c>
       <c r="E318" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="F318" t="s">
         <v>5243</v>
@@ -34689,7 +34698,7 @@
         <v>1415</v>
       </c>
       <c r="I318" t="s">
-        <v>5388</v>
+        <v>5386</v>
       </c>
       <c r="J318" t="s">
         <v>1413</v>
@@ -34724,75 +34733,75 @@
     </row>
     <row r="319" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>5392</v>
+        <v>5390</v>
       </c>
       <c r="B319" t="s">
-        <v>5391</v>
+        <v>5389</v>
       </c>
       <c r="C319" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="D319">
         <v>1714</v>
       </c>
       <c r="E319" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="F319" t="s">
-        <v>5258</v>
+        <v>5257</v>
       </c>
       <c r="H319" t="s">
-        <v>5385</v>
+        <v>5383</v>
       </c>
       <c r="I319" t="s">
-        <v>5384</v>
+        <v>5382</v>
       </c>
       <c r="J319" t="s">
-        <v>5383</v>
+        <v>5381</v>
       </c>
       <c r="K319" t="s">
-        <v>5382</v>
+        <v>5380</v>
       </c>
       <c r="L319" t="s">
-        <v>5381</v>
+        <v>5379</v>
       </c>
       <c r="M319" t="s">
-        <v>5380</v>
+        <v>5378</v>
       </c>
       <c r="N319" t="s">
-        <v>5379</v>
+        <v>5377</v>
       </c>
       <c r="O319" t="s">
-        <v>5378</v>
+        <v>5376</v>
       </c>
       <c r="P319" t="s">
-        <v>5377</v>
+        <v>5375</v>
       </c>
       <c r="Q319" t="s">
-        <v>5376</v>
+        <v>5374</v>
       </c>
       <c r="R319" t="s">
-        <v>5375</v>
+        <v>5373</v>
       </c>
       <c r="S319" t="s">
-        <v>5374</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="320" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>5390</v>
+        <v>5388</v>
       </c>
       <c r="B320" t="s">
-        <v>5389</v>
+        <v>5387</v>
       </c>
       <c r="C320" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="D320">
         <v>1716</v>
       </c>
       <c r="E320" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="F320" t="s">
         <v>5243</v>
@@ -34801,7 +34810,7 @@
         <v>1415</v>
       </c>
       <c r="I320" t="s">
-        <v>5388</v>
+        <v>5386</v>
       </c>
       <c r="J320" t="s">
         <v>1413</v>
@@ -34836,58 +34845,58 @@
     </row>
     <row r="321" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>5387</v>
+        <v>5385</v>
       </c>
       <c r="B321" t="s">
-        <v>5386</v>
+        <v>5384</v>
       </c>
       <c r="C321" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="D321">
         <v>1716</v>
       </c>
       <c r="E321" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="F321" t="s">
-        <v>5258</v>
+        <v>5257</v>
       </c>
       <c r="H321" t="s">
-        <v>5385</v>
+        <v>5383</v>
       </c>
       <c r="I321" t="s">
-        <v>5384</v>
+        <v>5382</v>
       </c>
       <c r="J321" t="s">
-        <v>5383</v>
+        <v>5381</v>
       </c>
       <c r="K321" t="s">
-        <v>5382</v>
+        <v>5380</v>
       </c>
       <c r="L321" t="s">
-        <v>5381</v>
+        <v>5379</v>
       </c>
       <c r="M321" t="s">
-        <v>5380</v>
+        <v>5378</v>
       </c>
       <c r="N321" t="s">
-        <v>5379</v>
+        <v>5377</v>
       </c>
       <c r="O321" t="s">
-        <v>5378</v>
+        <v>5376</v>
       </c>
       <c r="P321" t="s">
-        <v>5377</v>
+        <v>5375</v>
       </c>
       <c r="Q321" t="s">
-        <v>5376</v>
+        <v>5374</v>
       </c>
       <c r="R321" t="s">
-        <v>5375</v>
+        <v>5373</v>
       </c>
       <c r="S321" t="s">
-        <v>5374</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="322" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
